--- a/biology/Botanique/Dibbelabbes/Dibbelabbes.xlsx
+++ b/biology/Botanique/Dibbelabbes/Dibbelabbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dibbelabbes ou Döbbekuchen (appelé aussi familièrement, Topflappen, Topfkuchen) est un plat populaire allemand à base de pommes de terre. C'est une spécialité culinaire typique des montagnes de l'Eifel, de la Sarre, de la Rhénanie, et du Westerwald.
@@ -513,7 +525,9 @@
           <t>Ingrédients et service</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la préparation de ce plat, on râpe des pommes de terre crues, on en fait une pâte avec des oignons râpés ou taillés en dés, et on ajoute de la viande séchée (ou du Räucherspeck) ou du Mettwurst (saucisse fumée de porc) et des œufs. Selon la recette, on ajoute de l'ail ou des poireaux coupés en anneaux.
 On le cuisine dans une sorte de poêle lourde que l'on agite constamment durant la cuisson (variante Dibbelabbes), en s'arrêtant seulement pour dissoudre les ingrédients mélangés, et en arrêtant le processus quand la viande devient croustillante. La variante Schales peut se préparer au four, d'abord avec couvercle, puis en le retirant de façon à faire gratiner le plat.
@@ -546,7 +560,9 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une variante de ce plat est le Pulschder de la région de Nahe, appelé aussi Potthucke dans la région du Sauerland.
 </t>
